--- a/data/curva_de_sun.xlsx
+++ b/data/curva_de_sun.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,25 +457,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>04dec2025</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>26nov2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>27nov2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>28nov2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>29nov2025</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>30nov2025</t>
         </is>
@@ -497,18 +502,21 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>2</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>6</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>5</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -528,18 +536,21 @@
         <v>8</v>
       </c>
       <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
         <v>3</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>6</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>24</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -562,15 +573,18 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
       </c>
       <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
         <v>8</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -590,18 +604,21 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>6</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>9</v>
       </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
       <c r="I5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -621,18 +638,21 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
         <v>3</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>6</v>
       </c>
-      <c r="G6" t="n">
-        <v>10</v>
-      </c>
       <c r="H6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" t="n">
         <v>9</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -652,18 +672,21 @@
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>6</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>12</v>
       </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
       <c r="I7" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -686,17 +709,20 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
         <v>9</v>
       </c>
-      <c r="G8" t="n">
-        <v>10</v>
-      </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
         <v>9</v>
       </c>
+      <c r="J8" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -717,15 +743,18 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
         <v>5</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>8</v>
       </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
       <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -745,18 +774,21 @@
         <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>12</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>11</v>
       </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
       <c r="I10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" t="n">
         <v>12</v>
       </c>
     </row>
@@ -776,18 +808,21 @@
         <v>3</v>
       </c>
       <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>9</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>8</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>9</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -807,11 +842,11 @@
         <v>9</v>
       </c>
       <c r="E12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" t="n">
         <v>4</v>
       </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
       <c r="G12" t="n">
         <v>10</v>
       </c>
@@ -819,6 +854,9 @@
         <v>10</v>
       </c>
       <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
         <v>10</v>
       </c>
     </row>
@@ -838,18 +876,21 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>11</v>
       </c>
-      <c r="G13" t="n">
-        <v>10</v>
-      </c>
       <c r="H13" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" t="n">
         <v>8</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>12</v>
       </c>
     </row>
@@ -869,18 +910,21 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>5</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>14</v>
       </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
       <c r="I14" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -900,18 +944,21 @@
         <v>3</v>
       </c>
       <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>8</v>
       </c>
-      <c r="G15" t="n">
-        <v>10</v>
-      </c>
       <c r="H15" t="n">
         <v>10</v>
       </c>
       <c r="I15" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" t="n">
         <v>10</v>
       </c>
     </row>
@@ -931,18 +978,21 @@
         <v>2</v>
       </c>
       <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
         <v>2</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>7</v>
       </c>
-      <c r="G16" t="n">
-        <v>10</v>
-      </c>
       <c r="H16" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" t="n">
         <v>6</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>8</v>
       </c>
     </row>
@@ -962,18 +1012,21 @@
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>9</v>
       </c>
-      <c r="G17" t="n">
-        <v>10</v>
-      </c>
       <c r="H17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" t="n">
         <v>4</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>8</v>
       </c>
     </row>
@@ -993,18 +1046,21 @@
         <v>5</v>
       </c>
       <c r="E18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
       <c r="G18" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" t="n">
         <v>12</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1024,18 +1080,21 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>8</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>11</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>7</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1055,18 +1114,21 @@
         <v>2</v>
       </c>
       <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
         <v>2</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>9</v>
       </c>
-      <c r="G20" t="n">
-        <v>10</v>
-      </c>
       <c r="H20" t="n">
         <v>10</v>
       </c>
       <c r="I20" t="n">
+        <v>10</v>
+      </c>
+      <c r="J20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1098,6 +1160,9 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1117,18 +1182,21 @@
         <v>3</v>
       </c>
       <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>11</v>
       </c>
-      <c r="G22" t="n">
-        <v>10</v>
-      </c>
       <c r="H22" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" t="n">
         <v>9</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1148,18 +1216,21 @@
         <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>7</v>
-      </c>
-      <c r="G23" t="n">
-        <v>9</v>
       </c>
       <c r="H23" t="n">
         <v>9</v>
       </c>
       <c r="I23" t="n">
+        <v>9</v>
+      </c>
+      <c r="J23" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1174,7 +1245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1205,25 +1276,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>04dec2025</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>26nov2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>27nov2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>28nov2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>29nov2025</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>30nov2025</t>
         </is>
@@ -1250,23 +1326,28 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1287,25 +1368,30 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1325,11 +1411,7 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>10</t>
@@ -1337,10 +1419,15 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1367,23 +1454,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -1412,25 +1504,30 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -1457,23 +1554,28 @@
           <t>2</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1503,20 +1605,25 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1550,20 +1657,25 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -1590,23 +1702,28 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1635,25 +1752,30 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -1682,14 +1804,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>10</t>
@@ -1701,6 +1823,11 @@
         </is>
       </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -1727,23 +1854,28 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1770,23 +1902,28 @@
           <t>3</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -1815,25 +1952,30 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -1862,25 +2004,30 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -1903,23 +2050,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -1944,21 +2096,26 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -1987,25 +2144,30 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -2034,25 +2196,30 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -2071,7 +2238,8 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2100,25 +2268,30 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -2145,23 +2318,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>10</t>
         </is>
